--- a/biology/Médecine/Alphonse_Devergie/Alphonse_Devergie.xlsx
+++ b/biology/Médecine/Alphonse_Devergie/Alphonse_Devergie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Guillaume-Alphonse Devergie (Paris, 15 février 1798 – 2 octobre 1879) est un médecin et dermatologue français. Il est l'un des pionniers de la médecine légale en France.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alphonse est le frère du docteur Marie-Nicolas Devergie. Il débute comme interne des Hôpitaux de Paris en 1816, avant d'en devenir médecin en 1834. En 1840, il succède à Laurent-Théodore Biett à l'hôpital Saint-Louis, et y prendra sa retraite en 1867. En 1856 Devergie fut le premier à décrire l’inflammation à papules dite pityriasis rubra pilaire, qu'Ernest Henri Besnier (1831-1909) a proposé[1] en 1889 d'appeler « maladie de Devergie[2]. »
-Son traité de 1854, Traité pratique des maladies de la peau, a fait époque. Membre de l'Académie de médecine de Paris, il en fut président en 1874. À sa retraite, en 1867, Devergie fit don de sa collection d'aquarelles médicales aux Hôpitaux de Paris : elle forma le noyau des collections du futur musée médical de l’Hôpital Saint-Louis[3] qui devint le musée des Moulages.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alphonse est le frère du docteur Marie-Nicolas Devergie. Il débute comme interne des Hôpitaux de Paris en 1816, avant d'en devenir médecin en 1834. En 1840, il succède à Laurent-Théodore Biett à l'hôpital Saint-Louis, et y prendra sa retraite en 1867. En 1856 Devergie fut le premier à décrire l’inflammation à papules dite pityriasis rubra pilaire, qu'Ernest Henri Besnier (1831-1909) a proposé en 1889 d'appeler « maladie de Devergie. »
+Son traité de 1854, Traité pratique des maladies de la peau, a fait époque. Membre de l'Académie de médecine de Paris, il en fut président en 1874. À sa retraite, en 1867, Devergie fit don de sa collection d'aquarelles médicales aux Hôpitaux de Paris : elle forma le noyau des collections du futur musée médical de l’Hôpital Saint-Louis qui devint le musée des Moulages.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hygiène et médecine légale: mélanges, 1823
 Quinam sunt in corporibus viventibus formites seu causae?, 1824
 De hac questione quinam sunt in corporibus viventibus formites seu causae ? Quibusnam legibus obstrictus, nasci, extingui et in eodem gradu permanere consuevit ?, 1824
 Mémoire sur la contraction organique sensible des systèmes musculaires de la vie organique et de la vie animale: dans les phlegmasies des membranes séreuses et muqueses, 1825
 Mémoire sur l'empoisonnement par l'hydriodate de potasse et sur les réactifs propres à démontrer l'existence de ce poison, 1825
-Médecine légale théorique et pratique, par Alph. Devergie,... Avec le texte et l'interprétation des lois relatives à la médecine légale, revus et annotés par J.-B.-F. Dehaussy de Robécourt, Bruxelles, t. I 1837 [1]
+Médecine légale théorique et pratique, par Alph. Devergie,... Avec le texte et l'interprétation des lois relatives à la médecine légale, revus et annotés par J.-B.-F. Dehaussy de Robécourt, Bruxelles, t. I 1837 
 Incontinence d'urine et son traitement rationnel par la méthode des injections, 1840
 Sur la valeur de l'examen microscopique du lait dans le choix d'une nourrice, 1842
 Notions générales sur les maladies de la peau, 1844
